--- a/experimental_models/macrophage_model.xlsx
+++ b/experimental_models/macrophage_model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/experimental_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54FC308-4153-DB43-AF92-32FD4B3C0E9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EA4D80-AD86-8A4D-BA8E-0A1D0B356562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,9 +581,6 @@
     <t>MEKK1_macrophage =&gt; p38_macrophage</t>
   </si>
   <si>
-    <t>MEKK1_macrophage =&gt; ERK</t>
-  </si>
-  <si>
     <t>p38_macrophage =&gt; Hsp27</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>IL1_macrophage</t>
+  </si>
+  <si>
+    <t>MEKK1_macrophage =&gt; ERK_macrophage</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:DK43"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:J33"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1308,10 +1308,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
         <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>4</v>
       </c>
       <c r="F3" s="14">
         <v>10</v>
@@ -1819,7 +1819,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>22</v>
@@ -2462,7 +2462,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
@@ -2791,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4090,7 +4090,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D21" s="22">
         <v>1</v>
@@ -4361,7 +4361,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="22">
         <v>1</v>
@@ -4559,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" s="22">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>78</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" s="22">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>79</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="22">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="22">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>86</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="22">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33" s="22">
         <v>1</v>
@@ -4955,7 +4955,7 @@
         <v>92</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34" s="22">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>93</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="22">
         <v>1</v>
@@ -5091,7 +5091,7 @@
         <v>127</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="22">
         <v>1</v>
@@ -5151,7 +5151,7 @@
         <v>128</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D37" s="22">
         <v>1</v>
@@ -5211,7 +5211,7 @@
         <v>129</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D38" s="22">
         <v>1</v>
